--- a/ref/CMU_English_Phonemes.xlsx
+++ b/ref/CMU_English_Phonemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="161">
   <si>
     <t>English Phoneme</t>
   </si>
@@ -125,9 +125,6 @@
     <t>be</t>
   </si>
   <si>
-    <t>	B</t>
-  </si>
-  <si>
     <t>IY</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Ed</t>
   </si>
   <si>
-    <t>	EH</t>
-  </si>
-  <si>
     <t>\-</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>ate</t>
   </si>
   <si>
-    <t>	EY</t>
-  </si>
-  <si>
     <t>\T</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>he</t>
   </si>
   <si>
-    <t>	HH</t>
-  </si>
-  <si>
     <t>He</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
     <t>eat</t>
   </si>
   <si>
-    <t>	IY</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
@@ -275,9 +260,6 @@
     <t>gee</t>
   </si>
   <si>
-    <t>	JH</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -320,6 +302,9 @@
     <t>ping</t>
   </si>
   <si>
+    <t>P IH</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -497,7 +482,7 @@
     <t>Z-</t>
   </si>
   <si>
-    <t>Notes:  </t>
+    <t>Notes:</t>
   </si>
   <si>
     <t>The lower case e and the upper case E are different in Ekalipi</t>
@@ -512,7 +497,7 @@
     <t>English uses an intonation/accent with some phonemes that Ekalipi does not. For example UW in hood, OW in oat. Maybe it is an error on the part of CMU or my accent is the problem.</t>
   </si>
   <si>
-    <t>The EH in Ed and the EY in Ed sound the same to me. Chris, do they sound different to you? </t>
+    <t>The EH in Ed and the EY in Ed sound the same to me. Chris, do they sound different to you?</t>
   </si>
 </sst>
 </file>
@@ -700,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,54 +902,54 @@
         <v>35</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P9" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,74 +957,74 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="N11" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>19</v>
@@ -1048,33 +1033,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>13</v>
@@ -1082,25 +1067,25 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="M14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>13</v>
@@ -1108,66 +1093,66 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="L16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="N16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,48 +1160,48 @@
         <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>13</v>
@@ -1224,25 +1209,25 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>13</v>
@@ -1250,28 +1235,28 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,164 +1264,161 @@
         <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="0" t="s">
+      <c r="N25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="Q25" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>13</v>
@@ -1444,86 +1426,86 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>7</v>
@@ -1531,57 +1513,57 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>19</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,39 +1571,39 @@
         <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>13</v>
@@ -1630,57 +1612,57 @@
         <v>16</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>19</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>19</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>7</v>
@@ -1688,115 +1670,115 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="M35" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="N35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>7</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>7</v>
@@ -1804,99 +1786,99 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" s="0" t="s">
-        <v>159</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>19</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ref/CMU_English_Phonemes.xlsx
+++ b/ref/CMU_English_Phonemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="162">
   <si>
     <t>English Phoneme</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>N-G</t>
   </si>
   <si>
     <t>PeN-G</t>
@@ -685,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1376,11 +1379,14 @@
       <c r="G25" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="L25" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>96</v>
@@ -1389,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>66</v>
@@ -1397,28 +1403,28 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="O26" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>13</v>
@@ -1426,31 +1432,31 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="L27" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1464,7 @@
         <v>96</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>96</v>
@@ -1470,7 +1476,7 @@
         <v>96</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>96</v>
@@ -1484,7 +1490,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>68</v>
@@ -1499,7 +1505,7 @@
         <v>68</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>68</v>
@@ -1513,25 +1519,25 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="H30" s="0" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>44</v>
@@ -1539,25 +1545,25 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="H31" s="0" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>19</v>
@@ -1571,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
@@ -1583,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>13</v>
@@ -1594,13 +1600,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>59</v>
@@ -1612,13 +1618,13 @@
         <v>16</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>19</v>
@@ -1630,39 +1636,39 @@
         <v>13</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>19</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>7</v>
@@ -1670,51 +1676,51 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="L35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="H36" s="0" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>44</v>
@@ -1722,25 +1728,25 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="H37" s="0" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>38</v>
@@ -1748,13 +1754,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>36</v>
@@ -1766,19 +1772,19 @@
         <v>7</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>44</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>7</v>
@@ -1789,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>41</v>
@@ -1801,7 +1807,7 @@
         <v>41</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>41</v>
@@ -1812,40 +1818,40 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>55</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>44</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>19</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S40" s="0" t="s">
         <v>68</v>
@@ -1853,32 +1859,32 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
